--- a/Code/Results/Cases/Case_1_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_236/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.296460342187117</v>
+        <v>1.425155276486919</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003177260546260996</v>
+        <v>0.005047617820290284</v>
       </c>
       <c r="E2">
-        <v>3.181708163232486</v>
+        <v>1.372457414750983</v>
       </c>
       <c r="F2">
-        <v>1.052309912964816</v>
+        <v>0.6848049257048388</v>
       </c>
       <c r="G2">
-        <v>1.04362267344608</v>
+        <v>0.549643369434321</v>
       </c>
       <c r="H2">
-        <v>0.5182997519138723</v>
+        <v>0.592691575247386</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.40979951556082</v>
+        <v>0.5070981716449978</v>
       </c>
       <c r="M2">
-        <v>0.8753465018649607</v>
+        <v>0.4074871229341639</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.008297767959107</v>
+        <v>1.342101873885497</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.002703255948421912</v>
+        <v>0.005286270337466092</v>
       </c>
       <c r="E3">
-        <v>2.807391077681046</v>
+        <v>1.255036682437691</v>
       </c>
       <c r="F3">
-        <v>0.907398634935177</v>
+        <v>0.666708826534574</v>
       </c>
       <c r="G3">
-        <v>0.8903567687420519</v>
+        <v>0.5294764152231153</v>
       </c>
       <c r="H3">
-        <v>0.4589788542709101</v>
+        <v>0.5921214951306979</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.221222130723532</v>
+        <v>0.4487414283029523</v>
       </c>
       <c r="M3">
-        <v>0.7603470054747774</v>
+        <v>0.3728698081742579</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.833242636632747</v>
+        <v>1.291359266997659</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.002522298200460682</v>
+        <v>0.005451867117836073</v>
       </c>
       <c r="E4">
-        <v>2.579200173781786</v>
+        <v>1.182892431255084</v>
       </c>
       <c r="F4">
-        <v>0.8231943672884228</v>
+        <v>0.6566252842522715</v>
       </c>
       <c r="G4">
-        <v>0.8015282268431321</v>
+        <v>0.5180840663426238</v>
       </c>
       <c r="H4">
-        <v>0.4253500580623779</v>
+        <v>0.5925421068014742</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.106385538468402</v>
+        <v>0.4128332772376382</v>
       </c>
       <c r="M4">
-        <v>0.6903815760102177</v>
+        <v>0.3516259766708245</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.762303464054156</v>
+        <v>1.270744948780134</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002472925005431392</v>
+        <v>0.005524077895589841</v>
       </c>
       <c r="E5">
-        <v>2.48654317080458</v>
+        <v>1.153483006883476</v>
       </c>
       <c r="F5">
-        <v>0.7899415314920759</v>
+        <v>0.6527713726784583</v>
       </c>
       <c r="G5">
-        <v>0.7664985995410518</v>
+        <v>0.5136867770201548</v>
       </c>
       <c r="H5">
-        <v>0.4122747430088367</v>
+        <v>0.5929056630383798</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.059779090220331</v>
+        <v>0.3981812692121025</v>
       </c>
       <c r="M5">
-        <v>0.6620025312498896</v>
+        <v>0.3429718746852757</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.750545994337728</v>
+        <v>1.267325811739994</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002466108564858516</v>
+        <v>0.005536352170437908</v>
       </c>
       <c r="E6">
-        <v>2.471175460210176</v>
+        <v>1.148599043951648</v>
       </c>
       <c r="F6">
-        <v>0.7844801961219474</v>
+        <v>0.6521467553335469</v>
       </c>
       <c r="G6">
-        <v>0.760748197157497</v>
+        <v>0.5129713074791766</v>
       </c>
       <c r="H6">
-        <v>0.4101395362708615</v>
+        <v>0.5929775892375488</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.05205029122132</v>
+        <v>0.3957471643813903</v>
       </c>
       <c r="M6">
-        <v>0.6572973957133783</v>
+        <v>0.3415350475100638</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.832284412066514</v>
+        <v>1.291080996858085</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.002521537777624872</v>
+        <v>0.005452821917129924</v>
       </c>
       <c r="E7">
-        <v>2.577949321721022</v>
+        <v>1.182495843614561</v>
       </c>
       <c r="F7">
-        <v>0.822741785682112</v>
+        <v>0.6565722799007006</v>
       </c>
       <c r="G7">
-        <v>0.8010512713290723</v>
+        <v>0.5180237752676646</v>
       </c>
       <c r="H7">
-        <v>0.4251712669778556</v>
+        <v>0.5925462339977798</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.105756277593883</v>
+        <v>0.4126357523734896</v>
       </c>
       <c r="M7">
-        <v>0.6899983472925371</v>
+        <v>0.3515092524353776</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.196664758048598</v>
+        <v>1.396466137690652</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.002988860437101337</v>
+        <v>0.005125909292816644</v>
       </c>
       <c r="E8">
-        <v>3.052251874261515</v>
+        <v>1.331981654128668</v>
       </c>
       <c r="F8">
-        <v>1.001266278606849</v>
+        <v>0.6783502094545923</v>
       </c>
       <c r="G8">
-        <v>0.9895810965842315</v>
+        <v>0.5424819712780504</v>
       </c>
       <c r="H8">
-        <v>0.4972190818351407</v>
+        <v>0.5923340794580838</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.34454985188691</v>
+        <v>0.4869928047463361</v>
       </c>
       <c r="M8">
-        <v>0.8355420723306466</v>
+        <v>0.3955487507813658</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.929913833348394</v>
+        <v>1.605133936623929</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004950758461731652</v>
+        <v>0.004639057548956771</v>
       </c>
       <c r="E9">
-        <v>3.999541756392603</v>
+        <v>1.624683008847029</v>
       </c>
       <c r="F9">
-        <v>1.396264648729101</v>
+        <v>0.7293557039160277</v>
       </c>
       <c r="G9">
-        <v>1.409205194377279</v>
+        <v>0.5984766374960202</v>
       </c>
       <c r="H9">
-        <v>0.6644379690548305</v>
+        <v>0.5981074497658199</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.82285630899699</v>
+        <v>0.6321976633349209</v>
       </c>
       <c r="M9">
-        <v>1.127579536625277</v>
+        <v>0.4820019249778795</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.486047407099818</v>
+        <v>1.759691751742423</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.007311582940751293</v>
+        <v>0.004379551020118555</v>
       </c>
       <c r="E10">
-        <v>4.712746387389672</v>
+        <v>1.839405290055566</v>
       </c>
       <c r="F10">
-        <v>1.725118031087277</v>
+        <v>0.7720954121058838</v>
       </c>
       <c r="G10">
-        <v>1.760804171843461</v>
+        <v>0.6447591029819932</v>
       </c>
       <c r="H10">
-        <v>0.8091204885855632</v>
+        <v>0.606227460794571</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.184366826519408</v>
+        <v>0.7385229001829998</v>
       </c>
       <c r="M10">
-        <v>1.348582547528139</v>
+        <v>0.5455855968609455</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.744396426935566</v>
+        <v>1.830282894892605</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.008663292845895398</v>
+        <v>0.004283739445661183</v>
       </c>
       <c r="E11">
-        <v>5.042755860316248</v>
+        <v>1.937008505043224</v>
       </c>
       <c r="F11">
-        <v>1.886127525609567</v>
+        <v>0.7927272931386966</v>
       </c>
       <c r="G11">
-        <v>1.933605473346461</v>
+        <v>0.6669845914881023</v>
       </c>
       <c r="H11">
-        <v>0.8812923000437252</v>
+        <v>0.6107864911029139</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.352072608475936</v>
+        <v>0.7868200927677833</v>
       </c>
       <c r="M11">
-        <v>1.451152030998387</v>
+        <v>0.5745289821210662</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.843149107495151</v>
+        <v>1.85705478576341</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.009223127313713775</v>
+        <v>0.004250734362553743</v>
       </c>
       <c r="E12">
-        <v>5.16870197855178</v>
+        <v>1.973956418570253</v>
       </c>
       <c r="F12">
-        <v>1.949040016684293</v>
+        <v>0.80071467796067</v>
       </c>
       <c r="G12">
-        <v>2.001234899840284</v>
+        <v>0.6755735487702452</v>
       </c>
       <c r="H12">
-        <v>0.9096973062776783</v>
+        <v>0.6126391423780433</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.416149234590279</v>
+        <v>0.8050990022102837</v>
       </c>
       <c r="M12">
-        <v>1.490346271106475</v>
+        <v>0.5854919341195881</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.821837337858483</v>
+        <v>1.851287175697507</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.009100279263803301</v>
+        <v>0.0042576955947915</v>
       </c>
       <c r="E13">
-        <v>5.141530559834905</v>
+        <v>1.965999594727037</v>
       </c>
       <c r="F13">
-        <v>1.935399004802264</v>
+        <v>0.7989866328956481</v>
       </c>
       <c r="G13">
-        <v>1.986566038292722</v>
+        <v>0.6737160173205154</v>
       </c>
       <c r="H13">
-        <v>0.9035291053684205</v>
+        <v>0.6122344966595392</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.402322035196534</v>
+        <v>0.8011627651404751</v>
       </c>
       <c r="M13">
-        <v>1.481888306638012</v>
+        <v>0.5831307449042953</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.752501462005853</v>
+        <v>1.832484621454967</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.008708337973274638</v>
+        <v>0.004280957971602106</v>
       </c>
       <c r="E14">
-        <v>5.053096787814184</v>
+        <v>1.940048487088234</v>
       </c>
       <c r="F14">
-        <v>1.891262560211104</v>
+        <v>0.7933809018785922</v>
       </c>
       <c r="G14">
-        <v>1.939123251159884</v>
+        <v>0.6676877258679212</v>
       </c>
       <c r="H14">
-        <v>0.8836066303144321</v>
+        <v>0.6109363691518013</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.35733216418177</v>
+        <v>0.7883241138515302</v>
       </c>
       <c r="M14">
-        <v>1.454369101337292</v>
+        <v>0.5754308561368049</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.710156076680619</v>
+        <v>1.820972796705632</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.008474773754230114</v>
+        <v>0.004295635934166597</v>
       </c>
       <c r="E15">
-        <v>4.999061768306063</v>
+        <v>1.924151038431404</v>
       </c>
       <c r="F15">
-        <v>1.864490344504276</v>
+        <v>0.7899700645070027</v>
       </c>
       <c r="G15">
-        <v>1.910360007981524</v>
+        <v>0.6640178323865769</v>
       </c>
       <c r="H15">
-        <v>0.871548793008003</v>
+        <v>0.6101577240459619</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.329852111528737</v>
+        <v>0.7804587422570251</v>
       </c>
       <c r="M15">
-        <v>1.437560775812074</v>
+        <v>0.5707148068114378</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.469283971078823</v>
+        <v>1.755084128605858</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.007229488114482763</v>
+        <v>0.004386266730980637</v>
       </c>
       <c r="E16">
-        <v>4.691306130008059</v>
+        <v>1.833025048765137</v>
       </c>
       <c r="F16">
-        <v>1.714849931264723</v>
+        <v>0.7707713027531327</v>
       </c>
       <c r="G16">
-        <v>1.74979810412043</v>
+        <v>0.6433305447921498</v>
       </c>
       <c r="H16">
-        <v>0.8045449634306294</v>
+        <v>0.6059470836223397</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.173480720160256</v>
+        <v>0.7353651396362295</v>
       </c>
       <c r="M16">
-        <v>1.341925331096391</v>
+        <v>0.5436944582373258</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.322990578305848</v>
+        <v>1.714735783273795</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.006541953338299322</v>
+        <v>0.004447617252399283</v>
       </c>
       <c r="E17">
-        <v>4.504052389965665</v>
+        <v>1.777101878944848</v>
       </c>
       <c r="F17">
-        <v>1.626172460628197</v>
+        <v>0.7593005998964628</v>
       </c>
       <c r="G17">
-        <v>1.654819627477394</v>
+        <v>0.6309425621135745</v>
       </c>
       <c r="H17">
-        <v>0.7651746879869563</v>
+        <v>0.6035868881689339</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.078453234605746</v>
+        <v>0.707683539869123</v>
       </c>
       <c r="M17">
-        <v>1.283817726534451</v>
+        <v>0.5271231781785986</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.239340940540785</v>
+        <v>1.691555023816534</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.006172086987106695</v>
+        <v>0.004484992901488738</v>
       </c>
       <c r="E18">
-        <v>4.396861018807527</v>
+        <v>1.744929373245242</v>
       </c>
       <c r="F18">
-        <v>1.576221128641606</v>
+        <v>0.75281469319998</v>
       </c>
       <c r="G18">
-        <v>1.601377082534555</v>
+        <v>0.6239273231780373</v>
       </c>
       <c r="H18">
-        <v>0.7431170532561566</v>
+        <v>0.6023106922633303</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.024095160633664</v>
+        <v>0.6917551609982411</v>
       </c>
       <c r="M18">
-        <v>1.250583108132943</v>
+        <v>0.5175935889264593</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.211099277648714</v>
+        <v>1.683710976203429</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.006051029496919824</v>
+        <v>0.004498003978241627</v>
       </c>
       <c r="E19">
-        <v>4.360650829077372</v>
+        <v>1.734035165058884</v>
       </c>
       <c r="F19">
-        <v>1.559481034500806</v>
+        <v>0.750637761268834</v>
       </c>
       <c r="G19">
-        <v>1.583476540899028</v>
+        <v>0.6215708488823566</v>
       </c>
       <c r="H19">
-        <v>0.7357450562713552</v>
+        <v>0.60189250651419</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.005738965804483</v>
+        <v>0.6863609440048322</v>
       </c>
       <c r="M19">
-        <v>1.239360896294471</v>
+        <v>0.5143673382930558</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.33851156091788</v>
+        <v>1.719028186690537</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.006612441050940276</v>
+        <v>0.004440869673610237</v>
       </c>
       <c r="E20">
-        <v>4.523931677306194</v>
+        <v>1.783055729284285</v>
       </c>
       <c r="F20">
-        <v>1.635501260516747</v>
+        <v>0.7605100859859704</v>
       </c>
       <c r="G20">
-        <v>1.664805125157216</v>
+        <v>0.6322498689491738</v>
       </c>
       <c r="H20">
-        <v>0.7693038724589485</v>
+        <v>0.6038297048454808</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.088537410906241</v>
+        <v>0.7106309824678476</v>
       </c>
       <c r="M20">
-        <v>1.289983577777818</v>
+        <v>0.5288870357602065</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.772840773290113</v>
+        <v>1.838006286444624</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008822087206290519</v>
+        <v>0.004274035682950483</v>
       </c>
       <c r="E21">
-        <v>5.079043808872996</v>
+        <v>1.947671302043631</v>
       </c>
       <c r="F21">
-        <v>1.904171163468874</v>
+        <v>0.7950226759256651</v>
       </c>
       <c r="G21">
-        <v>1.952995790122515</v>
+        <v>0.6694536619322946</v>
       </c>
       <c r="H21">
-        <v>0.8894277466692699</v>
+        <v>0.6113142197357604</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.370530415150085</v>
+        <v>0.7920954134761473</v>
       </c>
       <c r="M21">
-        <v>1.462442038019105</v>
+        <v>0.5776924261144387</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.062157365253483</v>
+        <v>1.916001785570359</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01055071496424453</v>
+        <v>0.004184136784363801</v>
       </c>
       <c r="E22">
-        <v>5.447650543367786</v>
+        <v>2.055184733304259</v>
       </c>
       <c r="F22">
-        <v>2.091257685888266</v>
+        <v>0.8185976439552007</v>
       </c>
       <c r="G22">
-        <v>2.154333223084166</v>
+        <v>0.6947767842823112</v>
       </c>
       <c r="H22">
-        <v>0.9742976375341925</v>
+        <v>0.616942498215252</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.558211297132686</v>
+        <v>0.8452777548096719</v>
       </c>
       <c r="M22">
-        <v>1.577248531097993</v>
+        <v>0.6096054444680306</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.907188770635287</v>
+        <v>1.874352472539556</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.009599017844230673</v>
+        <v>0.004230340050785486</v>
       </c>
       <c r="E23">
-        <v>5.25032014949312</v>
+        <v>1.997809888540758</v>
       </c>
       <c r="F23">
-        <v>1.990241401827291</v>
+        <v>0.8059208355263792</v>
       </c>
       <c r="G23">
-        <v>2.045557760085302</v>
+        <v>0.6811677008595041</v>
       </c>
       <c r="H23">
-        <v>0.9283582348245716</v>
+        <v>0.6138705616926927</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.457694998909261</v>
+        <v>0.8168987687423339</v>
       </c>
       <c r="M23">
-        <v>1.51575992431161</v>
+        <v>0.592571404974592</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.331493114249781</v>
+        <v>1.717087541138312</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.006580495006470954</v>
+        <v>0.004443913704688995</v>
       </c>
       <c r="E24">
-        <v>4.514942821458902</v>
+        <v>1.780364060491621</v>
       </c>
       <c r="F24">
-        <v>1.631280522267048</v>
+        <v>0.7599629388482327</v>
       </c>
       <c r="G24">
-        <v>1.660287088014513</v>
+        <v>0.631658503259132</v>
       </c>
       <c r="H24">
-        <v>0.7674352831912756</v>
+        <v>0.6037196761650421</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.083977507338773</v>
+        <v>0.7092984868317842</v>
       </c>
       <c r="M24">
-        <v>1.287195464495142</v>
+        <v>0.5280896036580316</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.72897113676504</v>
+        <v>1.548466354693119</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.004281666116435545</v>
+        <v>0.004753828655136516</v>
       </c>
       <c r="E25">
-        <v>3.740794502005969</v>
+        <v>1.545552917616192</v>
       </c>
       <c r="F25">
-        <v>1.283527843846869</v>
+        <v>0.7146476117381724</v>
       </c>
       <c r="G25">
-        <v>1.289119182513815</v>
+        <v>0.5824432944151852</v>
       </c>
       <c r="H25">
-        <v>0.615853019215848</v>
+        <v>0.5958721617152491</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.692007534164645</v>
+        <v>0.5929797532598684</v>
       </c>
       <c r="M25">
-        <v>1.047636148165545</v>
+        <v>0.4586032086208078</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_236/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.425155276486919</v>
+        <v>2.29646034218689</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005047617820290284</v>
+        <v>0.00317726054622014</v>
       </c>
       <c r="E2">
-        <v>1.372457414750983</v>
+        <v>3.181708163232429</v>
       </c>
       <c r="F2">
-        <v>0.6848049257048388</v>
+        <v>1.052309912964816</v>
       </c>
       <c r="G2">
-        <v>0.549643369434321</v>
+        <v>1.043622673446094</v>
       </c>
       <c r="H2">
-        <v>0.592691575247386</v>
+        <v>0.5182997519138581</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5070981716449978</v>
+        <v>1.409799515560934</v>
       </c>
       <c r="M2">
-        <v>0.4074871229341639</v>
+        <v>0.8753465018649109</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.342101873885497</v>
+        <v>2.008297767959164</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.005286270337466092</v>
+        <v>0.002703255948595995</v>
       </c>
       <c r="E3">
-        <v>1.255036682437691</v>
+        <v>2.807391077681046</v>
       </c>
       <c r="F3">
-        <v>0.666708826534574</v>
+        <v>0.9073986349351912</v>
       </c>
       <c r="G3">
-        <v>0.5294764152231153</v>
+        <v>0.8903567687420804</v>
       </c>
       <c r="H3">
-        <v>0.5921214951306979</v>
+        <v>0.4589788542709243</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4487414283029523</v>
+        <v>1.221222130723419</v>
       </c>
       <c r="M3">
-        <v>0.3728698081742579</v>
+        <v>0.7603470054747845</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.291359266997659</v>
+        <v>1.833242636632292</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.005451867117836073</v>
+        <v>0.002522298200405615</v>
       </c>
       <c r="E4">
-        <v>1.182892431255084</v>
+        <v>2.579200173781814</v>
       </c>
       <c r="F4">
-        <v>0.6566252842522715</v>
+        <v>0.823194367288437</v>
       </c>
       <c r="G4">
-        <v>0.5180840663426238</v>
+        <v>0.8015282268431037</v>
       </c>
       <c r="H4">
-        <v>0.5925421068014742</v>
+        <v>0.4253500580624916</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4128332772376382</v>
+        <v>1.106385538468373</v>
       </c>
       <c r="M4">
-        <v>0.3516259766708245</v>
+        <v>0.690381576010239</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.270744948780134</v>
+        <v>1.762303464054384</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.005524077895589841</v>
+        <v>0.002472925005491788</v>
       </c>
       <c r="E5">
-        <v>1.153483006883476</v>
+        <v>2.486543170804538</v>
       </c>
       <c r="F5">
-        <v>0.6527713726784583</v>
+        <v>0.7899415314920759</v>
       </c>
       <c r="G5">
-        <v>0.5136867770201548</v>
+        <v>0.766498599541066</v>
       </c>
       <c r="H5">
-        <v>0.5929056630383798</v>
+        <v>0.4122747430088367</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3981812692121025</v>
+        <v>1.059779090220275</v>
       </c>
       <c r="M5">
-        <v>0.3429718746852757</v>
+        <v>0.6620025312498896</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.267325811739994</v>
+        <v>1.750545994337614</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005536352170437908</v>
+        <v>0.002466108564908254</v>
       </c>
       <c r="E6">
-        <v>1.148599043951648</v>
+        <v>2.471175460210148</v>
       </c>
       <c r="F6">
-        <v>0.6521467553335469</v>
+        <v>0.7844801961219474</v>
       </c>
       <c r="G6">
-        <v>0.5129713074791766</v>
+        <v>0.7607481971574401</v>
       </c>
       <c r="H6">
-        <v>0.5929775892375488</v>
+        <v>0.4101395362709752</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3957471643813903</v>
+        <v>1.052050291221434</v>
       </c>
       <c r="M6">
-        <v>0.3415350475100638</v>
+        <v>0.6572973957133925</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.291080996858085</v>
+        <v>1.832284412066457</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005452821917129924</v>
+        <v>0.002521537777452565</v>
       </c>
       <c r="E7">
-        <v>1.182495843614561</v>
+        <v>2.577949321720951</v>
       </c>
       <c r="F7">
-        <v>0.6565722799007006</v>
+        <v>0.8227417856821404</v>
       </c>
       <c r="G7">
-        <v>0.5180237752676646</v>
+        <v>0.8010512713291007</v>
       </c>
       <c r="H7">
-        <v>0.5925462339977798</v>
+        <v>0.4251712669778556</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4126357523734896</v>
+        <v>1.105756277593969</v>
       </c>
       <c r="M7">
-        <v>0.3515092524353776</v>
+        <v>0.6899983472925086</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.396466137690652</v>
+        <v>2.196664758048598</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005125909292816644</v>
+        <v>0.002988860437090679</v>
       </c>
       <c r="E8">
-        <v>1.331981654128668</v>
+        <v>3.052251874261486</v>
       </c>
       <c r="F8">
-        <v>0.6783502094545923</v>
+        <v>1.001266278606849</v>
       </c>
       <c r="G8">
-        <v>0.5424819712780504</v>
+        <v>0.9895810965842315</v>
       </c>
       <c r="H8">
-        <v>0.5923340794580838</v>
+        <v>0.497219081835155</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4869928047463361</v>
+        <v>1.344549851886995</v>
       </c>
       <c r="M8">
-        <v>0.3955487507813658</v>
+        <v>0.8355420723306466</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.605133936623929</v>
+        <v>2.929913833348451</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004639057548956771</v>
+        <v>0.00495075846170856</v>
       </c>
       <c r="E9">
-        <v>1.624683008847029</v>
+        <v>3.999541756392603</v>
       </c>
       <c r="F9">
-        <v>0.7293557039160277</v>
+        <v>1.396264648729129</v>
       </c>
       <c r="G9">
-        <v>0.5984766374960202</v>
+        <v>1.409205194377364</v>
       </c>
       <c r="H9">
-        <v>0.5981074497658199</v>
+        <v>0.6644379690548874</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6321976633349209</v>
+        <v>1.822856308997046</v>
       </c>
       <c r="M9">
-        <v>0.4820019249778795</v>
+        <v>1.127579536625262</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.759691751742423</v>
+        <v>3.486047407100045</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.004379551020118555</v>
+        <v>0.007311582940847217</v>
       </c>
       <c r="E10">
-        <v>1.839405290055566</v>
+        <v>4.712746387389615</v>
       </c>
       <c r="F10">
-        <v>0.7720954121058838</v>
+        <v>1.725118031087291</v>
       </c>
       <c r="G10">
-        <v>0.6447591029819932</v>
+        <v>1.760804171843574</v>
       </c>
       <c r="H10">
-        <v>0.606227460794571</v>
+        <v>0.8091204885855916</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7385229001829998</v>
+        <v>2.184366826519465</v>
       </c>
       <c r="M10">
-        <v>0.5455855968609455</v>
+        <v>1.348582547528167</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.830282894892605</v>
+        <v>3.744396426935282</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.004283739445661183</v>
+        <v>0.008663292845984216</v>
       </c>
       <c r="E11">
-        <v>1.937008505043224</v>
+        <v>5.04275586031622</v>
       </c>
       <c r="F11">
-        <v>0.7927272931386966</v>
+        <v>1.886127525609567</v>
       </c>
       <c r="G11">
-        <v>0.6669845914881023</v>
+        <v>1.933605473346404</v>
       </c>
       <c r="H11">
-        <v>0.6107864911029139</v>
+        <v>0.8812923000436967</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7868200927677833</v>
+        <v>2.352072608475908</v>
       </c>
       <c r="M11">
-        <v>0.5745289821210662</v>
+        <v>1.451152030998372</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.85705478576341</v>
+        <v>3.84314910749481</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.004250734362553743</v>
+        <v>0.009223127313724433</v>
       </c>
       <c r="E12">
-        <v>1.973956418570253</v>
+        <v>5.16870197855178</v>
       </c>
       <c r="F12">
-        <v>0.80071467796067</v>
+        <v>1.949040016684265</v>
       </c>
       <c r="G12">
-        <v>0.6755735487702452</v>
+        <v>2.001234899840341</v>
       </c>
       <c r="H12">
-        <v>0.6126391423780433</v>
+        <v>0.9096973062777352</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8050990022102837</v>
+        <v>2.416149234590449</v>
       </c>
       <c r="M12">
-        <v>0.5854919341195881</v>
+        <v>1.490346271106475</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.851287175697507</v>
+        <v>3.821837337858483</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0042576955947915</v>
+        <v>0.009100279263799749</v>
       </c>
       <c r="E13">
-        <v>1.965999594727037</v>
+        <v>5.141530559834848</v>
       </c>
       <c r="F13">
-        <v>0.7989866328956481</v>
+        <v>1.935399004802278</v>
       </c>
       <c r="G13">
-        <v>0.6737160173205154</v>
+        <v>1.986566038292779</v>
       </c>
       <c r="H13">
-        <v>0.6122344966595392</v>
+        <v>0.9035291053683352</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8011627651404751</v>
+        <v>2.402322035196505</v>
       </c>
       <c r="M13">
-        <v>0.5831307449042953</v>
+        <v>1.481888306638012</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.832484621454967</v>
+        <v>3.752501462006535</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.004280957971602106</v>
+        <v>0.008708337973267533</v>
       </c>
       <c r="E14">
-        <v>1.940048487088234</v>
+        <v>5.053096787814269</v>
       </c>
       <c r="F14">
-        <v>0.7933809018785922</v>
+        <v>1.891262560211118</v>
       </c>
       <c r="G14">
-        <v>0.6676877258679212</v>
+        <v>1.939123251159856</v>
       </c>
       <c r="H14">
-        <v>0.6109363691518013</v>
+        <v>0.8836066303144321</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7883241138515302</v>
+        <v>2.357332164181912</v>
       </c>
       <c r="M14">
-        <v>0.5754308561368049</v>
+        <v>1.454369101337335</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.820972796705632</v>
+        <v>3.710156076680562</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.004295635934166597</v>
+        <v>0.008474773754224785</v>
       </c>
       <c r="E15">
-        <v>1.924151038431404</v>
+        <v>4.999061768306007</v>
       </c>
       <c r="F15">
-        <v>0.7899700645070027</v>
+        <v>1.86449034450429</v>
       </c>
       <c r="G15">
-        <v>0.6640178323865769</v>
+        <v>1.910360007981609</v>
       </c>
       <c r="H15">
-        <v>0.6101577240459619</v>
+        <v>0.8715487930078609</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7804587422570251</v>
+        <v>2.329852111528794</v>
       </c>
       <c r="M15">
-        <v>0.5707148068114378</v>
+        <v>1.437560775812031</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.755084128605858</v>
+        <v>3.469283971079051</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.004386266730980637</v>
+        <v>0.007229488114385063</v>
       </c>
       <c r="E16">
-        <v>1.833025048765137</v>
+        <v>4.691306130008087</v>
       </c>
       <c r="F16">
-        <v>0.7707713027531327</v>
+        <v>1.714849931264695</v>
       </c>
       <c r="G16">
-        <v>0.6433305447921498</v>
+        <v>1.74979810412043</v>
       </c>
       <c r="H16">
-        <v>0.6059470836223397</v>
+        <v>0.8045449634307715</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7353651396362295</v>
+        <v>2.173480720160313</v>
       </c>
       <c r="M16">
-        <v>0.5436944582373258</v>
+        <v>1.341925331096348</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.714735783273795</v>
+        <v>3.322990578305621</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.004447617252399283</v>
+        <v>0.00654195333840768</v>
       </c>
       <c r="E17">
-        <v>1.777101878944848</v>
+        <v>4.504052389965665</v>
       </c>
       <c r="F17">
-        <v>0.7593005998964628</v>
+        <v>1.626172460628212</v>
       </c>
       <c r="G17">
-        <v>0.6309425621135745</v>
+        <v>1.654819627477366</v>
       </c>
       <c r="H17">
-        <v>0.6035868881689339</v>
+        <v>0.7651746879868426</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.707683539869123</v>
+        <v>2.078453234605774</v>
       </c>
       <c r="M17">
-        <v>0.5271231781785986</v>
+        <v>1.283817726534451</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.691555023816534</v>
+        <v>3.239340940540842</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.004484992901488738</v>
+        <v>0.006172086987101366</v>
       </c>
       <c r="E18">
-        <v>1.744929373245242</v>
+        <v>4.396861018807527</v>
       </c>
       <c r="F18">
-        <v>0.75281469319998</v>
+        <v>1.576221128641606</v>
       </c>
       <c r="G18">
-        <v>0.6239273231780373</v>
+        <v>1.601377082534583</v>
       </c>
       <c r="H18">
-        <v>0.6023106922633303</v>
+        <v>0.7431170532561566</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6917551609982411</v>
+        <v>2.024095160633749</v>
       </c>
       <c r="M18">
-        <v>0.5175935889264593</v>
+        <v>1.250583108132957</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.683710976203429</v>
+        <v>3.211099277648998</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.004498003978241627</v>
+        <v>0.006051029496898508</v>
       </c>
       <c r="E19">
-        <v>1.734035165058884</v>
+        <v>4.360650829077343</v>
       </c>
       <c r="F19">
-        <v>0.750637761268834</v>
+        <v>1.559481034500791</v>
       </c>
       <c r="G19">
-        <v>0.6215708488823566</v>
+        <v>1.583476540898914</v>
       </c>
       <c r="H19">
-        <v>0.60189250651419</v>
+        <v>0.7357450562712415</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6863609440048322</v>
+        <v>2.005738965804369</v>
       </c>
       <c r="M19">
-        <v>0.5143673382930558</v>
+        <v>1.239360896294428</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.719028186690537</v>
+        <v>3.338511560917823</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.004440869673610237</v>
+        <v>0.006612441050739548</v>
       </c>
       <c r="E20">
-        <v>1.783055729284285</v>
+        <v>4.523931677306223</v>
       </c>
       <c r="F20">
-        <v>0.7605100859859704</v>
+        <v>1.635501260516733</v>
       </c>
       <c r="G20">
-        <v>0.6322498689491738</v>
+        <v>1.664805125157244</v>
       </c>
       <c r="H20">
-        <v>0.6038297048454808</v>
+        <v>0.7693038724589485</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7106309824678476</v>
+        <v>2.088537410906156</v>
       </c>
       <c r="M20">
-        <v>0.5288870357602065</v>
+        <v>1.289983577777818</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.838006286444624</v>
+        <v>3.772840773290511</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.004274035682950483</v>
+        <v>0.008822087206205254</v>
       </c>
       <c r="E21">
-        <v>1.947671302043631</v>
+        <v>5.079043808872967</v>
       </c>
       <c r="F21">
-        <v>0.7950226759256651</v>
+        <v>1.904171163468888</v>
       </c>
       <c r="G21">
-        <v>0.6694536619322946</v>
+        <v>1.952995790122543</v>
       </c>
       <c r="H21">
-        <v>0.6113142197357604</v>
+        <v>0.8894277466691562</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7920954134761473</v>
+        <v>2.370530415150057</v>
       </c>
       <c r="M21">
-        <v>0.5776924261144387</v>
+        <v>1.462442038019091</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.916001785570359</v>
+        <v>4.06215736525354</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.004184136784363801</v>
+        <v>0.01055071496423565</v>
       </c>
       <c r="E22">
-        <v>2.055184733304259</v>
+        <v>5.447650543367729</v>
       </c>
       <c r="F22">
-        <v>0.8185976439552007</v>
+        <v>2.091257685888237</v>
       </c>
       <c r="G22">
-        <v>0.6947767842823112</v>
+        <v>2.154333223084109</v>
       </c>
       <c r="H22">
-        <v>0.616942498215252</v>
+        <v>0.9742976375343346</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8452777548096719</v>
+        <v>2.558211297133084</v>
       </c>
       <c r="M22">
-        <v>0.6096054444680306</v>
+        <v>1.57724853109805</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.874352472539556</v>
+        <v>3.907188770635742</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.004230340050785486</v>
+        <v>0.00959901784414896</v>
       </c>
       <c r="E23">
-        <v>1.997809888540758</v>
+        <v>5.250320149493149</v>
       </c>
       <c r="F23">
-        <v>0.8059208355263792</v>
+        <v>1.990241401827291</v>
       </c>
       <c r="G23">
-        <v>0.6811677008595041</v>
+        <v>2.045557760085273</v>
       </c>
       <c r="H23">
-        <v>0.6138705616926927</v>
+        <v>0.9283582348245716</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8168987687423339</v>
+        <v>2.457694998909176</v>
       </c>
       <c r="M23">
-        <v>0.592571404974592</v>
+        <v>1.515759924311595</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.717087541138312</v>
+        <v>3.331493114250065</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.004443913704688995</v>
+        <v>0.006580495006586418</v>
       </c>
       <c r="E24">
-        <v>1.780364060491621</v>
+        <v>4.514942821458874</v>
       </c>
       <c r="F24">
-        <v>0.7599629388482327</v>
+        <v>1.631280522267076</v>
       </c>
       <c r="G24">
-        <v>0.631658503259132</v>
+        <v>1.660287088014485</v>
       </c>
       <c r="H24">
-        <v>0.6037196761650421</v>
+        <v>0.7674352831912756</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7092984868317842</v>
+        <v>2.083977507338801</v>
       </c>
       <c r="M24">
-        <v>0.5280896036580316</v>
+        <v>1.287195464495156</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.548466354693119</v>
+        <v>2.728971136764926</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.004753828655136516</v>
+        <v>0.004281666116442651</v>
       </c>
       <c r="E25">
-        <v>1.545552917616192</v>
+        <v>3.74079450200594</v>
       </c>
       <c r="F25">
-        <v>0.7146476117381724</v>
+        <v>1.283527843846883</v>
       </c>
       <c r="G25">
-        <v>0.5824432944151852</v>
+        <v>1.289119182513758</v>
       </c>
       <c r="H25">
-        <v>0.5958721617152491</v>
+        <v>0.615853019215848</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5929797532598684</v>
+        <v>1.692007534164816</v>
       </c>
       <c r="M25">
-        <v>0.4586032086208078</v>
+        <v>1.047636148165552</v>
       </c>
       <c r="N25">
         <v>0</v>
